--- a/aws solutions architect professional/notes/AWS-Service Interoperability Matrix.xlsx
+++ b/aws solutions architect professional/notes/AWS-Service Interoperability Matrix.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\github\aws-playground\General\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\github\aws\aws-playground\aws solutions architect professional\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8453374E-CE39-4D34-BD4D-5C80A8406640}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE80016-0A09-4001-A1A2-45567236FBBC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="2310" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Interoperability Matrix" sheetId="1" r:id="rId1"/>
@@ -623,10 +623,10 @@
   <dimension ref="A1:BU76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="11" ySplit="29" topLeftCell="AA30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="29" topLeftCell="AJ30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
-      <selection pane="bottomRight" activeCell="AK55" sqref="AK55"/>
+      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -664,7 +664,7 @@
     <col min="31" max="31" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="12" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="3.77734375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="3.5546875" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="4.6640625" bestFit="1" customWidth="1"/>
@@ -2577,7 +2577,7 @@
       <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
       <c r="AG23" s="2"/>
-      <c r="AH23" s="2"/>
+      <c r="AH23" s="7"/>
       <c r="AI23" s="2"/>
       <c r="AJ23" s="2"/>
       <c r="AK23" s="2"/>
@@ -3413,7 +3413,7 @@
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
       <c r="V34" s="2"/>
-      <c r="W34" s="2"/>
+      <c r="W34" s="7"/>
       <c r="X34" s="2"/>
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
@@ -3444,8 +3444,8 @@
       <c r="AY34" s="2"/>
       <c r="AZ34" s="2"/>
       <c r="BA34" s="2"/>
-      <c r="BB34" s="2"/>
-      <c r="BC34" s="2"/>
+      <c r="BB34" s="7"/>
+      <c r="BC34" s="7"/>
       <c r="BD34" s="6"/>
       <c r="BE34" s="2"/>
       <c r="BF34" s="7"/>
@@ -4964,7 +4964,7 @@
       <c r="AE54" s="2"/>
       <c r="AF54" s="2"/>
       <c r="AG54" s="2"/>
-      <c r="AH54" s="2"/>
+      <c r="AH54" s="7"/>
       <c r="AI54" s="2"/>
       <c r="AJ54" s="2"/>
       <c r="AK54" s="2"/>
@@ -5041,7 +5041,7 @@
       <c r="AE55" s="2"/>
       <c r="AF55" s="2"/>
       <c r="AG55" s="2"/>
-      <c r="AH55" s="2"/>
+      <c r="AH55" s="7"/>
       <c r="AI55" s="7"/>
       <c r="AJ55" s="2"/>
       <c r="AK55" s="7"/>
